--- a/ExcelTestApp/Data/RetkeBolesti.xlsx
+++ b/ExcelTestApp/Data/RetkeBolesti.xlsx
@@ -5,14 +5,18 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.tesanovic\Documents\visual studio 2015\Projects\ExcelTestApp\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i.tesanovic\Documents\Visual Studio 2015\Projects\ExcelTestApp\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="27870" windowHeight="13020" tabRatio="500"/>
+    <workbookView xWindow="11160" yWindow="0" windowWidth="27870" windowHeight="13020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Sheet10">#REF!</definedName>
@@ -25,26 +29,26 @@
     <definedName name="Sheet17">#REF!</definedName>
     <definedName name="Sheet18">#REF!</definedName>
     <definedName name="Sheet19">#REF!</definedName>
-    <definedName name="Sheet2">#REF!</definedName>
+    <definedName name="Sheet2">Sheet2!$A$1:$C$1</definedName>
     <definedName name="Sheet20">#REF!</definedName>
     <definedName name="Sheet22">#REF!</definedName>
     <definedName name="Sheet24">#REF!</definedName>
     <definedName name="Sheet26">#REF!</definedName>
     <definedName name="Sheet28">#REF!</definedName>
-    <definedName name="Sheet3">#REF!</definedName>
+    <definedName name="Sheet3">Sheet3!$A$1:$C$1</definedName>
     <definedName name="Sheet30">#REF!</definedName>
     <definedName name="Sheet32">#REF!</definedName>
     <definedName name="Sheet34">#REF!</definedName>
     <definedName name="Sheet36">#REF!</definedName>
     <definedName name="Sheet38">#REF!</definedName>
-    <definedName name="Sheet4">#REF!</definedName>
-    <definedName name="Sheet5">#REF!</definedName>
+    <definedName name="Sheet4">Sheet4!$A$1:$C$1</definedName>
+    <definedName name="Sheet5">Sheet5!$A$1:$C$1</definedName>
     <definedName name="Sheet6">#REF!</definedName>
     <definedName name="Sheet7">#REF!</definedName>
     <definedName name="Sheet8">#REF!</definedName>
     <definedName name="Sheet9">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -54,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="28">
   <si>
     <t>Property</t>
   </si>
@@ -63,6 +67,81 @@
   </si>
   <si>
     <t>Serbian</t>
+  </si>
+  <si>
+    <t>Pun naziv bolesti</t>
+  </si>
+  <si>
+    <t>Progressive sensorineural hearing loss-hypertrophic cardiomyopathy syndrome</t>
+  </si>
+  <si>
+    <t>Skraćen naziv bolesti</t>
+  </si>
+  <si>
+    <t>Sinonimi</t>
+  </si>
+  <si>
+    <t>Kategorija</t>
+  </si>
+  <si>
+    <t>Potkategorija</t>
+  </si>
+  <si>
+    <t>Naziv bolesti na stranom jeziku</t>
+  </si>
+  <si>
+    <t>Orpha broj</t>
+  </si>
+  <si>
+    <t>Učestalost</t>
+  </si>
+  <si>
+    <t>Nasleđivanje</t>
+  </si>
+  <si>
+    <t>Period početka bolesti</t>
+  </si>
+  <si>
+    <t>ICD-10</t>
+  </si>
+  <si>
+    <t>OMIM</t>
+  </si>
+  <si>
+    <t>UMLS</t>
+  </si>
+  <si>
+    <t>MeSH</t>
+  </si>
+  <si>
+    <t>GARD</t>
+  </si>
+  <si>
+    <t>MedDRA</t>
+  </si>
+  <si>
+    <t>Sadržaj</t>
+  </si>
+  <si>
+    <t>Tekstualni opis</t>
+  </si>
+  <si>
+    <t>Dijagnostika</t>
+  </si>
+  <si>
+    <t>Terapije</t>
+  </si>
+  <si>
+    <t>Validacija lekara</t>
+  </si>
+  <si>
+    <t>Prognoze</t>
+  </si>
+  <si>
+    <t>Kliniča istraživanja</t>
+  </si>
+  <si>
+    <t>Dodatni članci, linkovi, komentari</t>
   </si>
 </sst>
 </file>
@@ -439,16 +518,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.375" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="64.875" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -461,6 +540,129 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -471,4 +673,600 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>